--- a/数据表/DialogLine.xlsx
+++ b/数据表/DialogLine.xlsx
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
